--- a/databases/aeronaves_militares.xlsx
+++ b/databases/aeronaves_militares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cpp\jupyter_notebook\k_means\banco_de_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\UFABC\QUADRIMESTRES\17º QUADRIMESTRE\Trabalho de Graduação em Engenharia III\Monografia\Subrotinas\k_means\banco_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{93E4D31A-696B-48F3-A50A-3E3E8DFB1680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{115199CF-71D4-4899-9521-D54591FD0C54}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5818E51A-6A69-4993-BBA7-4B1AE6758560}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="12504" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -18,15 +18,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$A:$A,data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,877 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
-    <t>Name</t>
+    <t>Fokker DXXI / D21</t>
+  </si>
+  <si>
+    <t>Wingspan</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Hurricane Mk.I</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Hurricane Mk.IIB</t>
+  </si>
+  <si>
+    <t>Fokker G.I</t>
+  </si>
+  <si>
+    <t>Fokker G.IA</t>
+  </si>
+  <si>
+    <t>Bf 109G-10</t>
+  </si>
+  <si>
+    <t>Bf 109E-4</t>
+  </si>
+  <si>
+    <t>Bf 109C-1</t>
+  </si>
+  <si>
+    <t>A6M2 m.21 'Zero'</t>
+  </si>
+  <si>
+    <t>A6M3 m.32 'Zero'</t>
+  </si>
+  <si>
+    <t>F4F-4 'Wildcat'</t>
+  </si>
+  <si>
+    <t>P-40C</t>
+  </si>
+  <si>
+    <t>P-40E-1</t>
+  </si>
+  <si>
+    <t>P-40F-5</t>
+  </si>
+  <si>
+    <t>P-40N-20</t>
+  </si>
+  <si>
+    <t>MiG-3</t>
+  </si>
+  <si>
+    <t>Macchi M.C. 205V</t>
+  </si>
+  <si>
+    <t>F-4U-4 'Corsair'</t>
+  </si>
+  <si>
+    <t>Mosquito NF Mk.30</t>
+  </si>
+  <si>
+    <t>Mosquito FB Mk.IV</t>
+  </si>
+  <si>
+    <t>Mosquito NF Mk.II</t>
+  </si>
+  <si>
+    <t>Spitfire Mk.IA</t>
+  </si>
+  <si>
+    <t>Spitfire Mk.IX</t>
+  </si>
+  <si>
+    <t>Spitfire Mk.XIV</t>
+  </si>
+  <si>
+    <t>Me 262A-1a</t>
+  </si>
+  <si>
+    <t>Fw 190A-8</t>
+  </si>
+  <si>
+    <t>Fw 190D-9</t>
+  </si>
+  <si>
+    <t>MiG-15</t>
+  </si>
+  <si>
+    <t>Meteor F Mk.III</t>
+  </si>
+  <si>
+    <t>Meteor F Mk.8</t>
+  </si>
+  <si>
+    <t>Meteor NF Mk.11</t>
+  </si>
+  <si>
+    <t>Saab J-29F</t>
+  </si>
+  <si>
+    <t>Hunter FGA.9</t>
+  </si>
+  <si>
+    <t>MiG-17F</t>
+  </si>
+  <si>
+    <t>Super Mystere B2</t>
+  </si>
+  <si>
+    <t>Saab J-32B</t>
+  </si>
+  <si>
+    <t>CF-105 Arrow Mk.I</t>
+  </si>
+  <si>
+    <t>Saab J35F</t>
+  </si>
+  <si>
+    <t>Buccaneer S.2B</t>
+  </si>
+  <si>
+    <t>Harrier GR.3</t>
+  </si>
+  <si>
+    <t>Mirage IIIE</t>
+  </si>
+  <si>
+    <t>Mirage F.1C</t>
+  </si>
+  <si>
+    <t>Jaguar GR.1</t>
+  </si>
+  <si>
+    <t>Kfir C-1</t>
+  </si>
+  <si>
+    <t>Hawk T.1</t>
+  </si>
+  <si>
+    <t>Super Etendard</t>
+  </si>
+  <si>
+    <t>Alpha Jet A</t>
+  </si>
+  <si>
+    <t>Su-25 'Frogfoot'</t>
+  </si>
+  <si>
+    <t>Tornado F Mk.3</t>
+  </si>
+  <si>
+    <t>Tornado GR.1</t>
+  </si>
+  <si>
+    <t>F-111F 'Aardvark'</t>
+  </si>
+  <si>
+    <t>Su-27 'Flanker-B'</t>
+  </si>
+  <si>
+    <t>F-20 'Tigershark'</t>
+  </si>
+  <si>
+    <t>MiG-31M 'Foxhound'</t>
+  </si>
+  <si>
+    <t>Mirage 2000C</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>Mirage 4000</t>
+  </si>
+  <si>
+    <t>Rafale C</t>
+  </si>
+  <si>
+    <t>Eurofighter Typhoon</t>
+  </si>
+  <si>
+    <t>Chendgu J-10</t>
+  </si>
+  <si>
+    <t>Airco D.H.2</t>
+  </si>
+  <si>
+    <t>Airco D.H.5</t>
+  </si>
+  <si>
+    <t>Albatros D.I</t>
+  </si>
+  <si>
+    <t>Albatros D.II</t>
+  </si>
+  <si>
+    <t>Albatros D.III</t>
+  </si>
+  <si>
+    <t>Albatros D.V</t>
+  </si>
+  <si>
+    <t>Armstrong F.K.10</t>
+  </si>
+  <si>
+    <t>Aviatik D.I</t>
+  </si>
+  <si>
+    <t>B.E. 12</t>
+  </si>
+  <si>
+    <t>Bristol F.2b</t>
+  </si>
+  <si>
+    <t>Bristol M.1c</t>
+  </si>
+  <si>
+    <t>Bristol Scout</t>
+  </si>
+  <si>
+    <t>F.E. 2d</t>
+  </si>
+  <si>
+    <t>Fokker D.VIII</t>
+  </si>
+  <si>
+    <t>Fokker D.VII</t>
+  </si>
+  <si>
+    <t>Fokker Dr.I</t>
+  </si>
+  <si>
+    <t>Fokker E.I</t>
+  </si>
+  <si>
+    <t>Fokker E.III</t>
+  </si>
+  <si>
+    <t>Fokker E.II</t>
+  </si>
+  <si>
+    <t>Halberstadt D.II</t>
+  </si>
+  <si>
+    <t>Hanriot HD.1</t>
+  </si>
+  <si>
+    <t>Hansa-Brandenburg D.I</t>
+  </si>
+  <si>
+    <t>Junkers CL.I</t>
+  </si>
+  <si>
+    <t>Junkers J.I</t>
+  </si>
+  <si>
+    <t>Ju 87B-1 'Stuka'</t>
+  </si>
+  <si>
+    <t>Martinsyde G.100</t>
+  </si>
+  <si>
+    <t>Morane-Saulnier L</t>
+  </si>
+  <si>
+    <t>Morane-Saulnier N</t>
+  </si>
+  <si>
+    <t>Nieuport 11</t>
+  </si>
+  <si>
+    <t>Nieuport 12</t>
+  </si>
+  <si>
+    <t>Nieuport 16</t>
+  </si>
+  <si>
+    <t>Nieuport 17</t>
+  </si>
+  <si>
+    <t>Nieuport 27</t>
+  </si>
+  <si>
+    <t>Nieuport 28</t>
+  </si>
+  <si>
+    <t>Pfalz D.III</t>
+  </si>
+  <si>
+    <t>Pfalz D.XII</t>
+  </si>
+  <si>
+    <t>Phonix D.I</t>
+  </si>
+  <si>
+    <t>Rumpler C.IV</t>
+  </si>
+  <si>
+    <t>S.E.5</t>
+  </si>
+  <si>
+    <t>Salmson 2</t>
+  </si>
+  <si>
+    <t>Siemens-Schuckert D.IV</t>
+  </si>
+  <si>
+    <t>Sopwith Strutter</t>
+  </si>
+  <si>
+    <t>Sopwith Bulldog</t>
+  </si>
+  <si>
+    <t>Sopwith Camel</t>
+  </si>
+  <si>
+    <t>Sopwith Dolphin</t>
+  </si>
+  <si>
+    <t>Sopwith Pup</t>
+  </si>
+  <si>
+    <t>Sopwith Snipe</t>
+  </si>
+  <si>
+    <t>Sopwith Triplane</t>
+  </si>
+  <si>
+    <t>SPAD VII</t>
+  </si>
+  <si>
+    <t>SPAD XIII</t>
+  </si>
+  <si>
+    <t>Vickers F.B.5</t>
+  </si>
+  <si>
+    <t>Boeing PW-9</t>
+  </si>
+  <si>
+    <t>Bristol Bulldog</t>
+  </si>
+  <si>
+    <t>Brewster Bufffalo</t>
+  </si>
+  <si>
+    <t>Curtiss P-1 Hawk</t>
+  </si>
+  <si>
+    <t>Curtiss P-6 Hawk</t>
+  </si>
+  <si>
+    <t>Grigorovich I-2</t>
+  </si>
+  <si>
+    <t>Tupolev I-4</t>
+  </si>
+  <si>
+    <t>Breguet 19</t>
+  </si>
+  <si>
+    <t>Aero A.18</t>
+  </si>
+  <si>
+    <t>Aero A.20</t>
+  </si>
+  <si>
+    <t>Aero Ae.02</t>
+  </si>
+  <si>
+    <t>Aero Ae.04</t>
+  </si>
+  <si>
+    <t>Avia BH-21</t>
+  </si>
+  <si>
+    <t>Armstrong Whitworth Siskin IIIA</t>
+  </si>
+  <si>
+    <t>Fairey Fox</t>
+  </si>
+  <si>
+    <t>Gloster Gamecock Mk.I</t>
+  </si>
+  <si>
+    <t>Gloster Grebe Mk.II</t>
+  </si>
+  <si>
+    <t>ACAZ C.2</t>
+  </si>
+  <si>
+    <t>CAC Wirraway</t>
+  </si>
+  <si>
+    <t>Gloster Gladiator</t>
+  </si>
+  <si>
+    <t>Boulton Paul Defiant Mk.I</t>
+  </si>
+  <si>
+    <t>Bristol Beaufighter Mk.X</t>
+  </si>
+  <si>
+    <t>Hawker Fury Mk II</t>
+  </si>
+  <si>
+    <t>Hawker Nimrod Mk.II</t>
+  </si>
+  <si>
+    <t>Arsenal CG-33</t>
+  </si>
+  <si>
+    <t>Morane-Saulnier M.S.406</t>
+  </si>
+  <si>
+    <t>Dewoitine D.520</t>
+  </si>
+  <si>
+    <t>Blériot S.510</t>
+  </si>
+  <si>
+    <t>Dewoitine D.510</t>
+  </si>
+  <si>
+    <t>Bloch MB.152C.1</t>
+  </si>
+  <si>
+    <t>Macchi C.200</t>
+  </si>
+  <si>
+    <t>Fiat CR.42</t>
+  </si>
+  <si>
+    <t>Fiat G.50</t>
+  </si>
+  <si>
+    <t>Nakajima Ki-27a</t>
+  </si>
+  <si>
+    <t>Nakajima Ki-43-II</t>
+  </si>
+  <si>
+    <t>Kawasaki Ki-45 Kai</t>
+  </si>
+  <si>
+    <t>Mitsubishi A5M</t>
+  </si>
+  <si>
+    <t>Nakajima A4N</t>
+  </si>
+  <si>
+    <t>Boeing P-26 'Peashooter'</t>
+  </si>
+  <si>
+    <t>F-35 Joint Strike Fighter</t>
+  </si>
+  <si>
+    <t>Saab JA 37 Viggen</t>
+  </si>
+  <si>
+    <t>Fokker E.IV</t>
+  </si>
+  <si>
+    <t>W/S</t>
+  </si>
+  <si>
+    <t>T/W</t>
+  </si>
+  <si>
+    <t>Polykarpov I-16</t>
+  </si>
+  <si>
+    <t>Mig-23</t>
+  </si>
+  <si>
+    <t>MTOW [kg]</t>
+  </si>
+  <si>
+    <t>VMO [km/h]</t>
+  </si>
+  <si>
+    <t>wS [m2]</t>
+  </si>
+  <si>
+    <t>Ceiling [m]</t>
+  </si>
+  <si>
+    <t>Boeing P-12</t>
+  </si>
+  <si>
+    <t>Westland Whirlwind</t>
+  </si>
+  <si>
+    <t>HAL Tejas/LCA</t>
+  </si>
+  <si>
+    <t>AIDC Ching-Kuo</t>
+  </si>
+  <si>
+    <t>Messerschmitt Bf 110C</t>
+  </si>
+  <si>
+    <t>British Electric Lightning F.6</t>
+  </si>
+  <si>
+    <t>DH Vampire FB Mk.6</t>
+  </si>
+  <si>
+    <t>Heinkel He 162</t>
+  </si>
+  <si>
+    <t>Heinkel He 219 Uhu</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-3</t>
+  </si>
+  <si>
+    <t>Hawker Typhoon</t>
+  </si>
+  <si>
+    <t>Embraer EMB-314</t>
+  </si>
+  <si>
+    <t>KAI T-50 Golden Eagle</t>
+  </si>
+  <si>
+    <t>IA 54 Pucará</t>
+  </si>
+  <si>
+    <t>Westland Wyvern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-326 </t>
+  </si>
+  <si>
+    <t>L-59 Super Albatros</t>
+  </si>
+  <si>
+    <t>L-39 Albatros</t>
+  </si>
+  <si>
+    <t>Nakajima Ki-84 Hayate</t>
+  </si>
+  <si>
+    <t>Kawasaki Ki-102a</t>
+  </si>
+  <si>
+    <t>Me 163 Komet</t>
+  </si>
+  <si>
+    <t>Junkers Ju 88G-7</t>
+  </si>
+  <si>
+    <t>Messerschmitt Me 410A</t>
+  </si>
+  <si>
+    <t>Henschel Hs 129</t>
+  </si>
+  <si>
+    <t>P-51A Mustang</t>
+  </si>
+  <si>
+    <t>P-51B Mustang</t>
+  </si>
+  <si>
+    <t>P-47D Thunderbolt</t>
+  </si>
+  <si>
+    <t>F6F-5 Hellcat</t>
+  </si>
+  <si>
+    <t>Yokosuda Okha</t>
+  </si>
+  <si>
+    <t>Gruman F-9F Panther</t>
+  </si>
+  <si>
+    <t>Vought F7U Cutlass</t>
+  </si>
+  <si>
+    <t>A-1H Skyraider</t>
+  </si>
+  <si>
+    <t>Supermarine Scimitar F.1</t>
+  </si>
+  <si>
+    <t>F-104G Starfighter</t>
+  </si>
+  <si>
+    <t>A-7D Corsair II</t>
+  </si>
+  <si>
+    <t>F-14A Tomcat</t>
+  </si>
+  <si>
+    <t>F-15C Eagle</t>
+  </si>
+  <si>
+    <t>MiG-27M Flogger</t>
+  </si>
+  <si>
+    <t>F-5E Tiger II</t>
+  </si>
+  <si>
+    <t>A-6E Intruder</t>
+  </si>
+  <si>
+    <t>A-4M Skyhawk</t>
+  </si>
+  <si>
+    <t>F-101B Voodoo</t>
+  </si>
+  <si>
+    <t>F-100C Super Sabre</t>
+  </si>
+  <si>
+    <t>F-100D Super Sabre</t>
+  </si>
+  <si>
+    <t>F-105D Thunderchief</t>
+  </si>
+  <si>
+    <t>F-104A Starfighter</t>
+  </si>
+  <si>
+    <t>F8U-3 Crusader</t>
+  </si>
+  <si>
+    <t>F-102A Delta Dagger</t>
+  </si>
+  <si>
+    <t>P-38J Lightning</t>
+  </si>
+  <si>
+    <t>Ju 87G-1 Stuka</t>
+  </si>
+  <si>
+    <t>A6M5 m.52 Zero</t>
+  </si>
+  <si>
+    <t>F-4U-1A Corsair</t>
+  </si>
+  <si>
+    <t>F-86A Sabre</t>
+  </si>
+  <si>
+    <t>F-84F Thunderstreak</t>
+  </si>
+  <si>
+    <t>F8U-2N Crusader</t>
+  </si>
+  <si>
+    <t>F-106 Delta Dart</t>
+  </si>
+  <si>
+    <t>MiG-21MF Fishbed</t>
+  </si>
+  <si>
+    <t>MiG-25RB Foxbat-C</t>
+  </si>
+  <si>
+    <t>Su-24MK Fencer</t>
+  </si>
+  <si>
+    <t>A-7B Corsair II</t>
+  </si>
+  <si>
+    <t>P-39 Airacobra</t>
+  </si>
+  <si>
+    <t>Ju 87D-1 Stuka</t>
+  </si>
+  <si>
+    <t>P-47C Razorback</t>
+  </si>
+  <si>
+    <t>P-38F Lightning</t>
+  </si>
+  <si>
+    <t>P-51D Mustang</t>
+  </si>
+  <si>
+    <t>P-80C Shooting Star</t>
+  </si>
+  <si>
+    <t>F8F-1B Bearcat</t>
+  </si>
+  <si>
+    <t>P-47N Thunderbolt</t>
+  </si>
+  <si>
+    <t>F-86D Sabre</t>
+  </si>
+  <si>
+    <t>Sukhoi Su-7B</t>
+  </si>
+  <si>
+    <t>MiG-21bis Fishbed</t>
+  </si>
+  <si>
+    <t>Su-17 Fitter C</t>
+  </si>
+  <si>
+    <t>F-111A Aardvark</t>
+  </si>
+  <si>
+    <t>F-4E Phantom II</t>
+  </si>
+  <si>
+    <t>A-4F Skyhawk</t>
+  </si>
+  <si>
+    <t>Su-17 Fitter</t>
+  </si>
+  <si>
+    <t>RA-5C Vigilante</t>
+  </si>
+  <si>
+    <t>F-4U-5 Corsair</t>
+  </si>
+  <si>
+    <t>Ju 87A-1 Stuka</t>
+  </si>
+  <si>
+    <t>F-5A Tiger</t>
+  </si>
+  <si>
+    <t>A-10A Thunderbolt II</t>
+  </si>
+  <si>
+    <t>F/A-18C/D Hornet</t>
+  </si>
+  <si>
+    <t>F-15E Strike Eagle</t>
+  </si>
+  <si>
+    <t>Saab JAS 39 Gripen</t>
+  </si>
+  <si>
+    <t>Mig-19</t>
+  </si>
+  <si>
+    <t>Su-9</t>
+  </si>
+  <si>
+    <t>Gloster Javelin</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-15</t>
+  </si>
+  <si>
+    <t>Mig-9</t>
+  </si>
+  <si>
+    <t>Heinkel He 280</t>
+  </si>
+  <si>
+    <t>Focke-Wulf Ta 152</t>
+  </si>
+  <si>
+    <t>MiG-25PD Foxbat -E</t>
+  </si>
+  <si>
+    <t>MiG-25 Foxbat</t>
+  </si>
+  <si>
+    <t>Su-17M4 Fitter</t>
+  </si>
+  <si>
+    <t>F-117A Nighthawk</t>
+  </si>
+  <si>
+    <t>F-16C Falcon</t>
+  </si>
+  <si>
+    <t>F/A-18E/F  Super Hornet</t>
+  </si>
+  <si>
+    <t>Yakovlev Yak-50</t>
+  </si>
+  <si>
+    <t>Lavochkin La-5FN</t>
+  </si>
+  <si>
+    <t>Petlyakov Pe-3</t>
+  </si>
+  <si>
+    <t>Fiat G.55 Centauro</t>
+  </si>
+  <si>
+    <t>Reggiane Re.2005 Sagittario</t>
+  </si>
+  <si>
+    <t>Hesa Saeqeh (Thunderbolt)</t>
+  </si>
+  <si>
+    <t>Mitsubishi F-1</t>
+  </si>
+  <si>
+    <t>Mitsubishi Ki-51 Sonia</t>
+  </si>
+  <si>
+    <t>Su-35 Super Flanker</t>
+  </si>
+  <si>
+    <t>F-16D Fighting Falcon</t>
+  </si>
+  <si>
+    <t>Bristol Brigand</t>
+  </si>
+  <si>
+    <t>Blackburn Firebrand</t>
+  </si>
+  <si>
+    <t>Blackburn B-25 Roc</t>
+  </si>
+  <si>
+    <t>F-86F Sabre</t>
+  </si>
+  <si>
+    <t>MiG-21F Fishbed</t>
+  </si>
+  <si>
+    <t>F-16A Falcon</t>
+  </si>
+  <si>
+    <t>Sukhoi Su-15 (T-58D)</t>
+  </si>
+  <si>
+    <t>PZL P.11a</t>
+  </si>
+  <si>
+    <t>PZL P.38 Wilk</t>
+  </si>
+  <si>
+    <t>Cessna T-37C</t>
+  </si>
+  <si>
+    <t>Curtiss S-3</t>
+  </si>
+  <si>
+    <t>F/A-22 Raptor</t>
+  </si>
+  <si>
+    <t>F-14D 'Tomcat</t>
+  </si>
+  <si>
+    <t>MiG-29A Fulcrum</t>
+  </si>
+  <si>
+    <t>Renard R.36</t>
+  </si>
+  <si>
+    <t>SABCA S.47</t>
+  </si>
+  <si>
+    <t>SAAB 21</t>
+  </si>
+  <si>
+    <t>Shenyang J-15</t>
   </si>
   <si>
     <t>Entry into service</t>
@@ -49,7 +915,7 @@
 4 = jet</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Number
@@ -57,15 +923,6 @@
 engines</t>
   </si>
   <si>
-    <t>Wingspan</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>Wing
 sweep
 min</t>
@@ -76,25 +933,10 @@
 max</t>
   </si>
   <si>
-    <t>wS [m2]</t>
-  </si>
-  <si>
     <t>Empty
 Weight [kg]</t>
   </si>
   <si>
-    <t>MTOW [kg]</t>
-  </si>
-  <si>
-    <t>VMO [km/h]</t>
-  </si>
-  <si>
-    <t>Ceiling [m]</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
     <t>Total
 Armament [kg]</t>
   </si>
@@ -103,853 +945,7 @@
 Conversion</t>
   </si>
   <si>
-    <t>T/W</t>
-  </si>
-  <si>
-    <t>W/S</t>
-  </si>
-  <si>
-    <t>A-10A Thunderbolt II</t>
-  </si>
-  <si>
-    <t>A-1H Skyraider</t>
-  </si>
-  <si>
-    <t>A-4F Skyhawk</t>
-  </si>
-  <si>
-    <t>A-4M Skyhawk</t>
-  </si>
-  <si>
-    <t>A-6E Intruder</t>
-  </si>
-  <si>
-    <t>A6M2 m.21 'Zero'</t>
-  </si>
-  <si>
-    <t>A6M3 m.32 'Zero'</t>
-  </si>
-  <si>
-    <t>A6M5 m.52 Zero</t>
-  </si>
-  <si>
-    <t>A-7B Corsair II</t>
-  </si>
-  <si>
-    <t>A-7D Corsair II</t>
-  </si>
-  <si>
-    <t>ACAZ C.2</t>
-  </si>
-  <si>
-    <t>Aero A.18</t>
-  </si>
-  <si>
-    <t>Aero A.20</t>
-  </si>
-  <si>
-    <t>Aero Ae.02</t>
-  </si>
-  <si>
-    <t>Aero Ae.04</t>
-  </si>
-  <si>
-    <t>AIDC Ching-Kuo</t>
-  </si>
-  <si>
-    <t>Airco D.H.2</t>
-  </si>
-  <si>
-    <t>Airco D.H.5</t>
-  </si>
-  <si>
-    <t>Albatros D.I</t>
-  </si>
-  <si>
-    <t>Albatros D.II</t>
-  </si>
-  <si>
-    <t>Albatros D.III</t>
-  </si>
-  <si>
-    <t>Albatros D.V</t>
-  </si>
-  <si>
-    <t>Alpha Jet A</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>Armstrong F.K.10</t>
-  </si>
-  <si>
-    <t>Armstrong Whitworth Siskin IIIA</t>
-  </si>
-  <si>
-    <t>Arsenal CG-33</t>
-  </si>
-  <si>
-    <t>Avia BH-21</t>
-  </si>
-  <si>
-    <t>Aviatik D.I</t>
-  </si>
-  <si>
-    <t>B.E. 12</t>
-  </si>
-  <si>
-    <t>Bf 109C-1</t>
-  </si>
-  <si>
-    <t>Bf 109E-4</t>
-  </si>
-  <si>
-    <t>Bf 109G-10</t>
-  </si>
-  <si>
-    <t>Blackburn B-25 Roc</t>
-  </si>
-  <si>
-    <t>Blackburn Firebrand</t>
-  </si>
-  <si>
-    <t>Blériot S.510</t>
-  </si>
-  <si>
-    <t>Bloch MB.152C.1</t>
-  </si>
-  <si>
-    <t>Boeing P-12</t>
-  </si>
-  <si>
-    <t>Boeing P-26 'Peashooter'</t>
-  </si>
-  <si>
-    <t>Boeing PW-9</t>
-  </si>
-  <si>
-    <t>Boulton Paul Defiant Mk.I</t>
-  </si>
-  <si>
-    <t>Breguet 19</t>
-  </si>
-  <si>
-    <t>Brewster Bufffalo</t>
-  </si>
-  <si>
-    <t>Bristol Beaufighter Mk.X</t>
-  </si>
-  <si>
-    <t>Bristol Brigand</t>
-  </si>
-  <si>
-    <t>Bristol Bulldog</t>
-  </si>
-  <si>
-    <t>Bristol F.2b</t>
-  </si>
-  <si>
-    <t>Bristol M.1c</t>
-  </si>
-  <si>
-    <t>Bristol Scout</t>
-  </si>
-  <si>
-    <t>British Electric Lightning F.6</t>
-  </si>
-  <si>
-    <t>Buccaneer S.2B</t>
-  </si>
-  <si>
-    <t>CAC Wirraway</t>
-  </si>
-  <si>
-    <t>Cessna T-37C</t>
-  </si>
-  <si>
-    <t>CF-105 Arrow Mk.I</t>
-  </si>
-  <si>
-    <t>Chendgu J-10</t>
-  </si>
-  <si>
-    <t>Curtiss P-1 Hawk</t>
-  </si>
-  <si>
-    <t>Curtiss P-6 Hawk</t>
-  </si>
-  <si>
-    <t>Curtiss S-3</t>
-  </si>
-  <si>
-    <t>Dewoitine D.510</t>
-  </si>
-  <si>
-    <t>Dewoitine D.520</t>
-  </si>
-  <si>
-    <t>DH Vampire FB Mk.6</t>
-  </si>
-  <si>
-    <t>Embraer EMB-314</t>
-  </si>
-  <si>
-    <t>Eurofighter Typhoon</t>
-  </si>
-  <si>
-    <t>F.E. 2d</t>
-  </si>
-  <si>
-    <t>F/A-18C/D Hornet</t>
-  </si>
-  <si>
-    <t>F/A-18E/F  Super Hornet</t>
-  </si>
-  <si>
-    <t>F/A-22 Raptor</t>
-  </si>
-  <si>
-    <t>F-100C Super Sabre</t>
-  </si>
-  <si>
-    <t>F-100D Super Sabre</t>
-  </si>
-  <si>
-    <t>F-101B Voodoo</t>
-  </si>
-  <si>
-    <t>F-102A Delta Dagger</t>
-  </si>
-  <si>
-    <t>F-104A Starfighter</t>
-  </si>
-  <si>
-    <t>F-104G Starfighter</t>
-  </si>
-  <si>
-    <t>F-105D Thunderchief</t>
-  </si>
-  <si>
-    <t>F-106 Delta Dart</t>
-  </si>
-  <si>
-    <t>F-111A Aardvark</t>
-  </si>
-  <si>
-    <t>F-111F 'Aardvark'</t>
-  </si>
-  <si>
-    <t>F-117A Nighthawk</t>
-  </si>
-  <si>
-    <t>F-14A Tomcat</t>
-  </si>
-  <si>
-    <t>F-14D 'Tomcat</t>
-  </si>
-  <si>
-    <t>F-15C Eagle</t>
-  </si>
-  <si>
-    <t>F-15E Strike Eagle</t>
-  </si>
-  <si>
-    <t>F-16A Falcon</t>
-  </si>
-  <si>
-    <t>F-16C Falcon</t>
-  </si>
-  <si>
-    <t>F-16D Fighting Falcon</t>
-  </si>
-  <si>
-    <t>F-20 'Tigershark'</t>
-  </si>
-  <si>
-    <t>F-35 Joint Strike Fighter</t>
-  </si>
-  <si>
-    <t>F-4E Phantom II</t>
-  </si>
-  <si>
-    <t>F4F-4 'Wildcat'</t>
-  </si>
-  <si>
-    <t>F-4U-1A Corsair</t>
-  </si>
-  <si>
-    <t>F-4U-4 'Corsair'</t>
-  </si>
-  <si>
-    <t>F-4U-5 Corsair</t>
-  </si>
-  <si>
-    <t>F-5A Tiger</t>
-  </si>
-  <si>
-    <t>F-5E Tiger II</t>
-  </si>
-  <si>
-    <t>F6F-5 Hellcat</t>
-  </si>
-  <si>
-    <t>F-84F Thunderstreak</t>
-  </si>
-  <si>
-    <t>F-86A Sabre</t>
-  </si>
-  <si>
-    <t>F-86D Sabre</t>
-  </si>
-  <si>
-    <t>F-86F Sabre</t>
-  </si>
-  <si>
-    <t>F8F-1B Bearcat</t>
-  </si>
-  <si>
-    <t>F8U-2N Crusader</t>
-  </si>
-  <si>
-    <t>F8U-3 Crusader</t>
-  </si>
-  <si>
-    <t>Fairey Fox</t>
-  </si>
-  <si>
-    <t>Fiat CR.42</t>
-  </si>
-  <si>
-    <t>Fiat G.50</t>
-  </si>
-  <si>
-    <t>Fiat G.55 Centauro</t>
-  </si>
-  <si>
-    <t>Focke-Wulf Ta 152</t>
-  </si>
-  <si>
-    <t>Fokker D.VII</t>
-  </si>
-  <si>
-    <t>Fokker D.VIII</t>
-  </si>
-  <si>
-    <t>Fokker Dr.I</t>
-  </si>
-  <si>
-    <t>Fokker DXXI / D21</t>
-  </si>
-  <si>
-    <t>Fokker E.I</t>
-  </si>
-  <si>
-    <t>Fokker E.II</t>
-  </si>
-  <si>
-    <t>Fokker E.III</t>
-  </si>
-  <si>
-    <t>Fokker E.IV</t>
-  </si>
-  <si>
-    <t>Fokker G.I</t>
-  </si>
-  <si>
-    <t>Fokker G.IA</t>
-  </si>
-  <si>
-    <t>Fw 190A-8</t>
-  </si>
-  <si>
-    <t>Fw 190D-9</t>
-  </si>
-  <si>
-    <t>Gloster Gamecock Mk.I</t>
-  </si>
-  <si>
-    <t>Gloster Gladiator</t>
-  </si>
-  <si>
-    <t>Gloster Grebe Mk.II</t>
-  </si>
-  <si>
-    <t>Gloster Javelin</t>
-  </si>
-  <si>
-    <t>Grigorovich I-2</t>
-  </si>
-  <si>
-    <t>Gruman F-9F Panther</t>
-  </si>
-  <si>
-    <t>HAL Tejas/LCA</t>
-  </si>
-  <si>
-    <t>Halberstadt D.II</t>
-  </si>
-  <si>
-    <t>Hanriot HD.1</t>
-  </si>
-  <si>
-    <t>Hansa-Brandenburg D.I</t>
-  </si>
-  <si>
-    <t>Harrier GR.3</t>
-  </si>
-  <si>
-    <t>Hawk T.1</t>
-  </si>
-  <si>
-    <t>Hawker Fury Mk II</t>
-  </si>
-  <si>
-    <t>Hawker Nimrod Mk.II</t>
-  </si>
-  <si>
-    <t>Hawker Typhoon</t>
-  </si>
-  <si>
-    <t>Heinkel He 162</t>
-  </si>
-  <si>
-    <t>Heinkel He 219 Uhu</t>
-  </si>
-  <si>
-    <t>Heinkel He 280</t>
-  </si>
-  <si>
-    <t>Henschel Hs 129</t>
-  </si>
-  <si>
-    <t>Hesa Saeqeh (Thunderbolt)</t>
-  </si>
-  <si>
-    <t>Hunter FGA.9</t>
-  </si>
-  <si>
-    <t>Hurricane Mk.I</t>
-  </si>
-  <si>
-    <t>Hurricane Mk.IIB</t>
-  </si>
-  <si>
-    <t>IA 54 Pucará</t>
-  </si>
-  <si>
-    <t>Jaguar GR.1</t>
-  </si>
-  <si>
-    <t>Ju 87A-1 Stuka</t>
-  </si>
-  <si>
-    <t>Ju 87B-1 'Stuka'</t>
-  </si>
-  <si>
-    <t>Ju 87D-1 Stuka</t>
-  </si>
-  <si>
-    <t>Ju 87G-1 Stuka</t>
-  </si>
-  <si>
-    <t>Junkers CL.I</t>
-  </si>
-  <si>
-    <t>Junkers J.I</t>
-  </si>
-  <si>
-    <t>Junkers Ju 88G-7</t>
-  </si>
-  <si>
-    <t>KAI T-50 Golden Eagle</t>
-  </si>
-  <si>
-    <t>Kawasaki Ki-102a</t>
-  </si>
-  <si>
-    <t>Kawasaki Ki-45 Kai</t>
-  </si>
-  <si>
-    <t>Kfir C-1</t>
-  </si>
-  <si>
-    <t>L-39 Albatros</t>
-  </si>
-  <si>
-    <t>L-59 Super Albatros</t>
-  </si>
-  <si>
-    <t>Lavochkin La-5FN</t>
-  </si>
-  <si>
-    <t>Macchi C.200</t>
-  </si>
-  <si>
-    <t>Macchi M.C. 205V</t>
-  </si>
-  <si>
-    <t>Martinsyde G.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-326 </t>
-  </si>
-  <si>
-    <t>Me 163 Komet</t>
-  </si>
-  <si>
-    <t>Me 262A-1a</t>
-  </si>
-  <si>
-    <t>Messerschmitt Bf 110C</t>
-  </si>
-  <si>
-    <t>Messerschmitt Me 410A</t>
-  </si>
-  <si>
-    <t>Meteor F Mk.8</t>
-  </si>
-  <si>
-    <t>Meteor F Mk.III</t>
-  </si>
-  <si>
-    <t>Meteor NF Mk.11</t>
-  </si>
-  <si>
-    <t>MiG-15</t>
-  </si>
-  <si>
-    <t>MiG-17F</t>
-  </si>
-  <si>
-    <t>Mig-19</t>
-  </si>
-  <si>
-    <t>MiG-21bis Fishbed</t>
-  </si>
-  <si>
-    <t>MiG-21F Fishbed</t>
-  </si>
-  <si>
-    <t>MiG-21MF Fishbed</t>
-  </si>
-  <si>
-    <t>Mig-23</t>
-  </si>
-  <si>
-    <t>MiG-25 Foxbat</t>
-  </si>
-  <si>
-    <t>MiG-25PD Foxbat -E</t>
-  </si>
-  <si>
-    <t>MiG-25RB Foxbat-C</t>
-  </si>
-  <si>
-    <t>MiG-27M Flogger</t>
-  </si>
-  <si>
-    <t>MiG-29A Fulcrum</t>
-  </si>
-  <si>
-    <t>MiG-3</t>
-  </si>
-  <si>
-    <t>MiG-31M 'Foxhound'</t>
-  </si>
-  <si>
-    <t>Mig-9</t>
-  </si>
-  <si>
-    <t>Mirage 2000C</t>
-  </si>
-  <si>
-    <t>Mirage 4000</t>
-  </si>
-  <si>
-    <t>Mirage F.1C</t>
-  </si>
-  <si>
-    <t>Mirage IIIE</t>
-  </si>
-  <si>
-    <t>Mitsubishi A5M</t>
-  </si>
-  <si>
-    <t>Mitsubishi F-1</t>
-  </si>
-  <si>
-    <t>Mitsubishi Ki-51 Sonia</t>
-  </si>
-  <si>
-    <t>Morane-Saulnier L</t>
-  </si>
-  <si>
-    <t>Morane-Saulnier M.S.406</t>
-  </si>
-  <si>
-    <t>Morane-Saulnier N</t>
-  </si>
-  <si>
-    <t>Mosquito FB Mk.IV</t>
-  </si>
-  <si>
-    <t>Mosquito NF Mk.30</t>
-  </si>
-  <si>
-    <t>Mosquito NF Mk.II</t>
-  </si>
-  <si>
     <t>N1K2 Shiden-KAI</t>
-  </si>
-  <si>
-    <t>Nakajima A4N</t>
-  </si>
-  <si>
-    <t>Nakajima Ki-27a</t>
-  </si>
-  <si>
-    <t>Nakajima Ki-43-II</t>
-  </si>
-  <si>
-    <t>Nakajima Ki-84 Hayate</t>
-  </si>
-  <si>
-    <t>Nieuport 11</t>
-  </si>
-  <si>
-    <t>Nieuport 12</t>
-  </si>
-  <si>
-    <t>Nieuport 16</t>
-  </si>
-  <si>
-    <t>Nieuport 17</t>
-  </si>
-  <si>
-    <t>Nieuport 27</t>
-  </si>
-  <si>
-    <t>Nieuport 28</t>
-  </si>
-  <si>
-    <t>P-38F Lightning</t>
-  </si>
-  <si>
-    <t>P-38J Lightning</t>
-  </si>
-  <si>
-    <t>P-39 Airacobra</t>
-  </si>
-  <si>
-    <t>P-40C</t>
-  </si>
-  <si>
-    <t>P-40E-1</t>
-  </si>
-  <si>
-    <t>P-40F-5</t>
-  </si>
-  <si>
-    <t>P-40N-20</t>
-  </si>
-  <si>
-    <t>P-47C Razorback</t>
-  </si>
-  <si>
-    <t>P-47D Thunderbolt</t>
-  </si>
-  <si>
-    <t>P-47N Thunderbolt</t>
-  </si>
-  <si>
-    <t>P-51A Mustang</t>
-  </si>
-  <si>
-    <t>P-51B Mustang</t>
-  </si>
-  <si>
-    <t>P-51D Mustang</t>
-  </si>
-  <si>
-    <t>P-80C Shooting Star</t>
-  </si>
-  <si>
-    <t>Petlyakov Pe-3</t>
-  </si>
-  <si>
-    <t>Pfalz D.III</t>
-  </si>
-  <si>
-    <t>Pfalz D.XII</t>
-  </si>
-  <si>
-    <t>Phonix D.I</t>
-  </si>
-  <si>
-    <t>Polykarpov I-16</t>
-  </si>
-  <si>
-    <t>PZL P.11a</t>
-  </si>
-  <si>
-    <t>PZL P.38 Wilk</t>
-  </si>
-  <si>
-    <t>RA-5C Vigilante</t>
-  </si>
-  <si>
-    <t>Rafale C</t>
-  </si>
-  <si>
-    <t>Reggiane Re.2005 Sagittario</t>
-  </si>
-  <si>
-    <t>Renard R.36</t>
-  </si>
-  <si>
-    <t>Rumpler C.IV</t>
-  </si>
-  <si>
-    <t>S.E.5</t>
-  </si>
-  <si>
-    <t>SAAB 21</t>
-  </si>
-  <si>
-    <t>Saab J-29F</t>
-  </si>
-  <si>
-    <t>Saab J-32B</t>
-  </si>
-  <si>
-    <t>Saab J35F</t>
-  </si>
-  <si>
-    <t>Saab JA 37 Viggen</t>
-  </si>
-  <si>
-    <t>Saab JAS 39 Gripen</t>
-  </si>
-  <si>
-    <t>SABCA S.47</t>
-  </si>
-  <si>
-    <t>Salmson 2</t>
-  </si>
-  <si>
-    <t>Shenyang J-15</t>
-  </si>
-  <si>
-    <t>Siemens-Schuckert D.IV</t>
-  </si>
-  <si>
-    <t>Sopwith Bulldog</t>
-  </si>
-  <si>
-    <t>Sopwith Camel</t>
-  </si>
-  <si>
-    <t>Sopwith Dolphin</t>
-  </si>
-  <si>
-    <t>Sopwith Pup</t>
-  </si>
-  <si>
-    <t>Sopwith Snipe</t>
-  </si>
-  <si>
-    <t>Sopwith Strutter</t>
-  </si>
-  <si>
-    <t>Sopwith Triplane</t>
-  </si>
-  <si>
-    <t>SPAD VII</t>
-  </si>
-  <si>
-    <t>SPAD XIII</t>
-  </si>
-  <si>
-    <t>Spitfire Mk.IA</t>
-  </si>
-  <si>
-    <t>Spitfire Mk.IX</t>
-  </si>
-  <si>
-    <t>Spitfire Mk.XIV</t>
-  </si>
-  <si>
-    <t>Su-17 Fitter</t>
-  </si>
-  <si>
-    <t>Su-17 Fitter C</t>
-  </si>
-  <si>
-    <t>Su-17M4 Fitter</t>
-  </si>
-  <si>
-    <t>Su-24MK Fencer</t>
-  </si>
-  <si>
-    <t>Su-25 'Frogfoot'</t>
-  </si>
-  <si>
-    <t>Su-27 'Flanker-B'</t>
-  </si>
-  <si>
-    <t>Su-35 Super Flanker</t>
-  </si>
-  <si>
-    <t>Su-9</t>
-  </si>
-  <si>
-    <t>Sukhoi Su-15 (T-58D)</t>
-  </si>
-  <si>
-    <t>Sukhoi Su-7B</t>
-  </si>
-  <si>
-    <t>Super Etendard</t>
-  </si>
-  <si>
-    <t>Super Mystere B2</t>
-  </si>
-  <si>
-    <t>Supermarine Scimitar F.1</t>
-  </si>
-  <si>
-    <t>Tornado F Mk.3</t>
-  </si>
-  <si>
-    <t>Tornado GR.1</t>
-  </si>
-  <si>
-    <t>Tupolev I-4</t>
-  </si>
-  <si>
-    <t>Vickers F.B.5</t>
-  </si>
-  <si>
-    <t>Vought F7U Cutlass</t>
-  </si>
-  <si>
-    <t>Westland Whirlwind</t>
-  </si>
-  <si>
-    <t>Westland Wyvern</t>
-  </si>
-  <si>
-    <t>Yakovlev Yak-15</t>
-  </si>
-  <si>
-    <t>Yakovlev Yak-3</t>
-  </si>
-  <si>
-    <t>Yakovlev Yak-50</t>
-  </si>
-  <si>
-    <t>Yokosuda Okha</t>
   </si>
 </sst>
 </file>
@@ -960,7 +956,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1091,7 +1087,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1389,99 +1385,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A4B40-535B-4173-94A7-7E7CFC708E38}">
   <dimension ref="A1:T282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="31.5703125" style="1"/>
+    <col min="9" max="10" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="31.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="84.75" customHeight="1">
+    <row r="1" spans="1:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="21" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="B2" s="17">
         <v>1976</v>
@@ -1541,9 +1537,9 @@
         <v>482.45054243777923</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="B3" s="17">
         <v>1947</v>
@@ -1603,9 +1599,9 @@
         <v>304.89608259618745</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45">
+    <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="B4" s="17">
         <v>1966</v>
@@ -1665,9 +1661,9 @@
         <v>460.1656314699793</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.45">
+    <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="B5" s="17">
         <v>1971</v>
@@ -1727,9 +1723,9 @@
         <v>460.1656314699793</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.45">
+    <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="B6" s="17">
         <v>1972</v>
@@ -1789,9 +1785,9 @@
         <v>557.64298799104415</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.45">
+    <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B7" s="17">
         <v>1940</v>
@@ -1851,9 +1847,9 @@
         <v>106.951871657754</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.45">
+    <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="17">
         <v>1940</v>
@@ -1913,9 +1909,9 @@
         <v>119.43661971830986</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.45">
+    <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B9" s="17">
         <v>1943</v>
@@ -1975,9 +1971,9 @@
         <v>128.30985915492957</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.45">
+    <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="B10" s="17">
         <v>1968</v>
@@ -2037,9 +2033,9 @@
         <v>546.94229112833762</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.45">
+    <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="B11" s="17">
         <v>1968</v>
@@ -2099,9 +2095,9 @@
         <v>546.94229112833762</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.45">
+    <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B12" s="18">
         <v>1926</v>
@@ -2161,9 +2157,9 @@
         <v>51.111111111111114</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.45">
+    <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B13" s="18">
         <v>1923</v>
@@ -2223,9 +2219,9 @@
         <v>51.949685534591197</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.45">
+    <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B14" s="18">
         <v>1923</v>
@@ -2285,9 +2281,9 @@
         <v>46.351931330472098</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.45">
+    <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B15" s="18">
         <v>1920</v>
@@ -2347,9 +2343,9 @@
         <v>56.58682634730539</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.45">
+    <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B16" s="18">
         <v>1921</v>
@@ -2409,9 +2405,9 @@
         <v>61.643835616438359</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.45">
+    <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="B17" s="17">
         <v>1994</v>
@@ -2471,9 +2467,9 @@
         <v>506.07438016528926</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.45">
+    <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B18" s="18">
         <v>1916</v>
@@ -2533,9 +2529,9 @@
         <v>28.231733679204499</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.45">
+    <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B19" s="18">
         <v>1917</v>
@@ -2595,9 +2591,9 @@
         <v>34.36548223350254</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.45">
+    <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B20" s="18">
         <v>1916</v>
@@ -2657,9 +2653,9 @@
         <v>39.213973799126641</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.45">
+    <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B21" s="18">
         <v>1916</v>
@@ -2719,9 +2715,9 @@
         <v>36.244897959183675</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.45">
+    <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B22" s="18">
         <v>1917</v>
@@ -2781,9 +2777,9 @@
         <v>43.219512195121951</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.45">
+    <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B23" s="18">
         <v>1917</v>
@@ -2843,9 +2839,9 @@
         <v>44.150943396226417</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.45">
+    <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B24" s="17">
         <v>1977</v>
@@ -2905,9 +2901,9 @@
         <v>457.14285714285717</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.45">
+    <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B25" s="17">
         <v>1988</v>
@@ -2967,9 +2963,9 @@
         <v>547.61904761904759</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.45">
+    <row r="26" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B26" s="18">
         <v>1916</v>
@@ -3029,9 +3025,9 @@
         <v>25.255031706644608</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.45">
+    <row r="27" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="B27" s="18">
         <v>1931</v>
@@ -3091,9 +3087,9 @@
         <v>50.257352941176471</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.45">
+    <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="B28" s="18">
         <v>1939</v>
@@ -3153,9 +3149,9 @@
         <v>390.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.45">
+    <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B29" s="18">
         <v>1925</v>
@@ -3215,9 +3211,9 @@
         <v>49.362477231329692</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.45">
+    <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B30" s="18">
         <v>1917</v>
@@ -3277,9 +3273,9 @@
         <v>39.082568807339449</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.45">
+    <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B31" s="18">
         <v>1916</v>
@@ -3339,9 +3335,9 @@
         <v>30.954453147664637</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.45">
+    <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B32" s="17">
         <v>1938</v>
@@ -3401,9 +3397,9 @@
         <v>141.99134199134198</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.45">
+    <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B33" s="17">
         <v>1939</v>
@@ -3463,9 +3459,9 @@
         <v>164.81137909709338</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.45">
+    <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B34" s="17">
         <v>1944</v>
@@ -3525,9 +3521,9 @@
         <v>211.18012422360246</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.45">
+    <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="B35" s="18">
         <v>1939</v>
@@ -3587,9 +3583,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="14.45">
+    <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="B36" s="17">
         <v>1945</v>
@@ -3649,9 +3645,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.45">
+    <row r="37" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="B37" s="18">
         <v>1936</v>
@@ -3711,9 +3707,9 @@
         <v>83.181818181818187</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.45">
+    <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="B38" s="18">
         <v>1940</v>
@@ -3773,9 +3769,9 @@
         <v>161.84971098265896</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="14.45">
+    <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="B39" s="18">
         <v>1929</v>
@@ -3835,9 +3831,9 @@
         <v>57.737813535257928</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.45">
+    <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B40" s="18">
         <v>1935</v>
@@ -3897,9 +3893,9 @@
         <v>84.666666666666671</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.45">
+    <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B41" s="18">
         <v>1924</v>
@@ -3959,9 +3955,9 @@
         <v>57.615006699419382</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="14.45">
+    <row r="42" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="B42" s="18">
         <v>1939</v>
@@ -4021,9 +4017,9 @@
         <v>162.41928540680155</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="14.45">
+    <row r="43" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B43" s="18">
         <v>1924</v>
@@ -4083,9 +4079,9 @@
         <v>45.489795918367349</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="14.45">
+    <row r="44" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B44" s="18">
         <v>1939</v>
@@ -4145,9 +4141,9 @@
         <v>117.71369721936148</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.45">
+    <row r="45" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B45" s="18">
         <v>1939</v>
@@ -4207,9 +4203,9 @@
         <v>246.5439760325273</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="14.45">
+    <row r="46" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="B46" s="17">
         <v>1946</v>
@@ -4269,9 +4265,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="14.45">
+    <row r="47" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B47" s="18">
         <v>1929</v>
@@ -4331,9 +4327,9 @@
         <v>54.198753208654196</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.45">
+    <row r="48" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B48" s="18">
         <v>1917</v>
@@ -4393,9 +4389,9 @@
         <v>33.519404572036152</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.45">
+    <row r="49" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B49" s="18">
         <v>1917</v>
@@ -4455,9 +4451,9 @@
         <v>45.360059391239787</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.45">
+    <row r="50" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B50" s="18">
         <v>1915</v>
@@ -4517,9 +4513,9 @@
         <v>30.500268961807425</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.45">
+    <row r="51" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="B51" s="17">
         <v>1960</v>
@@ -4579,9 +4575,9 @@
         <v>443.76614228692176</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="14.45">
+    <row r="52" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B52" s="17">
         <v>1965</v>
@@ -4641,9 +4637,9 @@
         <v>588.10121288163953</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.45">
+    <row r="53" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B53" s="18">
         <v>1939</v>
@@ -4703,9 +4699,9 @@
         <v>125.88383838383838</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.45">
+    <row r="54" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="B54" s="17">
         <v>1967</v>
@@ -4765,9 +4761,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="14.45">
+    <row r="55" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B55" s="17">
         <v>1958</v>
@@ -4827,9 +4823,9 @@
         <v>273.44463971880492</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.45">
+    <row r="56" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B56" s="17">
         <v>2003</v>
@@ -4889,9 +4885,9 @@
         <v>558.91238670694861</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.45">
+    <row r="57" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B57" s="18">
         <v>1925</v>
@@ -4951,9 +4947,9 @@
         <v>55.574687903572965</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.45">
+    <row r="58" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B58" s="18">
         <v>1929</v>
@@ -5013,9 +5009,9 @@
         <v>64.758650149508753</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.45">
+    <row r="59" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="B59" s="18">
         <v>1917</v>
@@ -5075,9 +5071,9 @@
         <v>44.75</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="14.45">
+    <row r="60" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B60" s="18">
         <v>1936</v>
@@ -5137,9 +5133,9 @@
         <v>116.54545454545455</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.45">
+    <row r="61" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B61" s="18">
         <v>1939</v>
@@ -5199,9 +5195,9 @@
         <v>173.75</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.45">
+    <row r="62" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="B62" s="17">
         <v>1946</v>
@@ -5261,9 +5257,9 @@
         <v>230.89564502875925</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.45">
+    <row r="63" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B63" s="17">
         <v>2003</v>
@@ -5323,9 +5319,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.45">
+    <row r="64" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B64" s="17">
         <v>2002</v>
@@ -5385,9 +5381,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.45">
+    <row r="65" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B65" s="18">
         <v>1916</v>
@@ -5447,9 +5443,9 @@
         <v>34.270152505446625</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.45">
+    <row r="66" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="B66" s="17">
         <v>1980</v>
@@ -5509,9 +5505,9 @@
         <v>683.55758880516692</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.45">
+    <row r="67" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="B67" s="17">
         <v>2002</v>
@@ -5571,9 +5567,9 @@
         <v>644.49946178686753</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.45">
+    <row r="68" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="B68" s="17">
         <v>2005</v>
@@ -5633,9 +5629,9 @@
         <v>348.92307692307691</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.45">
+    <row r="69" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="B69" s="17">
         <v>1956</v>
@@ -5695,9 +5691,9 @@
         <v>422.14145932345536</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="14.45">
+    <row r="70" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="B70" s="17">
         <v>1956</v>
@@ -5757,9 +5753,9 @@
         <v>441.71093094772152</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="14.45">
+    <row r="71" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B71" s="17">
         <v>1957</v>
@@ -5819,9 +5815,9 @@
         <v>695.1740274934192</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="14.45">
+    <row r="72" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="B72" s="17">
         <v>1956</v>
@@ -5881,9 +5877,9 @@
         <v>232.51423921887712</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="14.45">
+    <row r="73" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="B73" s="17">
         <v>1958</v>
@@ -5943,9 +5939,9 @@
         <v>643.65733113673798</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="14.45">
+    <row r="74" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="B74" s="17">
         <v>1960</v>
@@ -6005,9 +6001,9 @@
         <v>722.83205268935239</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="14.45">
+    <row r="75" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="B75" s="17">
         <v>1958</v>
@@ -6067,9 +6063,9 @@
         <v>670.21812080536915</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="14.45">
+    <row r="76" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="B76" s="17">
         <v>1959</v>
@@ -6129,9 +6125,9 @@
         <v>308.42002600780233</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="14.45">
+    <row r="77" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="B77" s="17">
         <v>1967</v>
@@ -6191,9 +6187,9 @@
         <v>821.66366464712621</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="14.45">
+    <row r="78" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B78" s="17">
         <v>1975</v>
@@ -6253,9 +6249,9 @@
         <v>742.73784182086126</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="14.45">
+    <row r="79" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="B79" s="17">
         <v>1982</v>
@@ -6315,9 +6311,9 @@
         <v>224.87252124645892</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="14.45">
+    <row r="80" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="B80" s="17">
         <v>1972</v>
@@ -6377,9 +6373,9 @@
         <v>642.48428272051819</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="14.45">
+    <row r="81" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="B81" s="17">
         <v>1990</v>
@@ -6439,9 +6435,9 @@
         <v>513.7614678899082</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="14.45">
+    <row r="82" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="B82" s="17">
         <v>1973</v>
@@ -6501,9 +6497,9 @@
         <v>546.10481586402273</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="14.45">
+    <row r="83" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="B83" s="17">
         <v>1988</v>
@@ -6563,9 +6559,9 @@
         <v>645.13274336283189</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="14.45">
+    <row r="84" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="B84" s="17">
         <v>1976</v>
@@ -6625,9 +6621,9 @@
         <v>609.67741935483878</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="14.45">
+    <row r="85" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="B85" s="17">
         <v>1987</v>
@@ -6687,9 +6683,9 @@
         <v>687.70609318996424</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="14.45">
+    <row r="86" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="B86" s="17">
         <v>1993</v>
@@ -6749,9 +6745,9 @@
         <v>575.5197132616488</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="14.45">
+    <row r="87" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B87" s="17">
         <v>1982</v>
@@ -6811,9 +6807,9 @@
         <v>721.93287037037032</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="14.45">
+    <row r="88" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B88" s="17">
         <v>2009</v>
@@ -6873,9 +6869,9 @@
         <v>538.64168618266979</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="14.45">
+    <row r="89" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="B89" s="17">
         <v>1967</v>
@@ -6935,9 +6931,9 @@
         <v>364.82534524776605</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="14.45">
+    <row r="90" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B90" s="17">
         <v>1940</v>
@@ -6997,9 +6993,9 @@
         <v>149.35817805383024</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="14.45">
+    <row r="91" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="B91" s="17">
         <v>1943</v>
@@ -7059,9 +7055,9 @@
         <v>217.68940692492285</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="14.45">
+    <row r="92" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B92" s="17">
         <v>1944</v>
@@ -7121,9 +7117,9 @@
         <v>225.9856016455262</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="14.45">
+    <row r="93" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="B93" s="17">
         <v>1946</v>
@@ -7183,9 +7179,9 @@
         <v>234.48748714432634</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="14.45">
+    <row r="94" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="B94" s="17">
         <v>1963</v>
@@ -7245,9 +7241,9 @@
         <v>593.66687777074105</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="14.45">
+    <row r="95" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B95" s="17">
         <v>1973</v>
@@ -7307,9 +7303,9 @@
         <v>647.39583333333326</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="14.45">
+    <row r="96" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="B96" s="17">
         <v>1944</v>
@@ -7369,9 +7365,9 @@
         <v>225.29809861424428</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="14.45">
+    <row r="97" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="B97" s="17">
         <v>1952</v>
@@ -7431,9 +7427,9 @@
         <v>405.66412719443525</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="14.45">
+    <row r="98" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="B98" s="17">
         <v>1948</v>
@@ -7493,9 +7489,9 @@
         <v>275.10280373831773</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="14.45">
+    <row r="99" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="B99" s="17">
         <v>1953</v>
@@ -7555,9 +7551,9 @@
         <v>308.03738317757012</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="14.45">
+    <row r="100" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="B100" s="17">
         <v>1952</v>
@@ -7617,9 +7613,9 @@
         <v>257.8317757009346</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.45">
+    <row r="101" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="B101" s="17">
         <v>1945</v>
@@ -7679,9 +7675,9 @@
         <v>259.06484340538157</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.45">
+    <row r="102" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="B102" s="17">
         <v>1958</v>
@@ -7741,9 +7737,9 @@
         <v>377.55453501722155</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.45">
+    <row r="103" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="B103" s="17">
         <v>1958</v>
@@ -7803,9 +7799,9 @@
         <v>420.74162679425842</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.45">
+    <row r="104" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B104" s="18">
         <v>1926</v>
@@ -7865,9 +7861,9 @@
         <v>71.220930232558146</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.45">
+    <row r="105" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B105" s="18">
         <v>1939</v>
@@ -7927,9 +7923,9 @@
         <v>102.45535714285715</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.45">
+    <row r="106" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B106" s="18">
         <v>1939</v>
@@ -7989,9 +7985,9 @@
         <v>148.68131868131869</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.45">
+    <row r="107" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="B107" s="17">
         <v>1943</v>
@@ -8051,9 +8047,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.45">
+    <row r="108" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="B108" s="17">
         <v>1945</v>
@@ -8113,9 +8109,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.45">
+    <row r="109" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B109" s="18">
         <v>1918</v>
@@ -8175,9 +8171,9 @@
         <v>42.975609756097562</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.45">
+    <row r="110" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B110" s="18">
         <v>1918</v>
@@ -8237,9 +8233,9 @@
         <v>52.616822429906549</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.45">
+    <row r="111" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B111" s="18">
         <v>1917</v>
@@ -8299,9 +8295,9 @@
         <v>31.40407288317256</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.45">
+    <row r="112" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="B112" s="17">
         <v>1936</v>
@@ -8361,9 +8357,9 @@
         <v>126.54320987654322</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.45">
+    <row r="113" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B113" s="18">
         <v>1915</v>
@@ -8423,9 +8419,9 @@
         <v>39.097222222222221</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.45">
+    <row r="114" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B114" s="18">
         <v>1915</v>
@@ -8485,9 +8481,9 @@
         <v>40.277777777777779</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.45">
+    <row r="115" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B115" s="18">
         <v>1915</v>
@@ -8547,9 +8543,9 @@
         <v>38.125</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.45">
+    <row r="116" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B116" s="18">
         <v>1915</v>
@@ -8609,9 +8605,9 @@
         <v>44.417177914110425</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.45">
+    <row r="117" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B117" s="17">
         <v>1938</v>
@@ -8671,9 +8667,9 @@
         <v>137.14285714285714</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.45">
+    <row r="118" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="B118" s="17">
         <v>1938</v>
@@ -8733,9 +8729,9 @@
         <v>125.32637075718017</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.45">
+    <row r="119" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="B119" s="17">
         <v>1943</v>
@@ -8795,9 +8791,9 @@
         <v>267.75956284153006</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.45">
+    <row r="120" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="B120" s="17">
         <v>1944</v>
@@ -8857,9 +8853,9 @@
         <v>264.48087431693989</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.45">
+    <row r="121" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B121" s="18">
         <v>1926</v>
@@ -8919,9 +8915,9 @@
         <v>52.955564614757435</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.45">
+    <row r="122" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B122" s="18">
         <v>1937</v>
@@ -8981,9 +8977,9 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.45">
+    <row r="123" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B123" s="18">
         <v>1923</v>
@@ -9043,9 +9039,9 @@
         <v>50.381355932203384</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.45">
+    <row r="124" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="B124" s="17">
         <v>1956</v>
@@ -9105,9 +9101,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.45">
+    <row r="125" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B125" s="18">
         <v>1924</v>
@@ -9167,9 +9163,9 @@
         <v>67.094017094017104</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.45">
+    <row r="126" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B126" s="17">
         <v>1947</v>
@@ -9229,9 +9225,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.45">
+    <row r="127" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B127" s="17">
         <v>2009</v>
@@ -9291,9 +9287,9 @@
         <v>248.17708333333334</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.45">
+    <row r="128" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B128" s="18">
         <v>1916</v>
@@ -9353,9 +9349,9 @@
         <v>32.66949152542373</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.45">
+    <row r="129" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="B129" s="18">
         <v>1916</v>
@@ -9415,9 +9411,9 @@
         <v>33.241758241758241</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="14.45">
+    <row r="130" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B130" s="18">
         <v>1916</v>
@@ -9477,9 +9473,9 @@
         <v>45.172413793103445</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="14.45">
+    <row r="131" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B131" s="17">
         <v>1969</v>
@@ -9539,9 +9535,9 @@
         <v>607.06638115631688</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="14.45">
+    <row r="132" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="B132" s="17">
         <v>1976</v>
@@ -9601,9 +9597,9 @@
         <v>545.23666866387055</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="14.45">
+    <row r="133" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B133" s="18">
         <v>1931</v>
@@ -9663,9 +9659,9 @@
         <v>62.93733179546328</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="14.45">
+    <row r="134" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B134" s="18">
         <v>1933</v>
@@ -9725,9 +9721,9 @@
         <v>65.844062947067243</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="14.45">
+    <row r="135" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B135" s="17">
         <v>1941</v>
@@ -9787,9 +9783,9 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="14.45">
+    <row r="136" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B136" s="17">
         <v>1945</v>
@@ -9849,9 +9845,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="14.45">
+    <row r="137" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B137" s="17">
         <v>1943</v>
@@ -9911,9 +9907,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="14.45">
+    <row r="138" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B138" s="18">
         <v>1940</v>
@@ -9973,9 +9969,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="14.45">
+    <row r="139" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B139" s="17">
         <v>1942</v>
@@ -10035,9 +10031,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="14.45">
+    <row r="140" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="B140" s="16">
         <v>2007</v>
@@ -10097,9 +10093,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="14.45">
+    <row r="141" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B141" s="17">
         <v>1953</v>
@@ -10159,9 +10155,9 @@
         <v>344.17026526835286</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="14.45">
+    <row r="142" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="B142" s="17">
         <v>1937</v>
@@ -10221,9 +10217,9 @@
         <v>125.11491851232762</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="14.45">
+    <row r="143" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="B143" s="17">
         <v>1937</v>
@@ -10283,9 +10279,9 @@
         <v>138.41973244147155</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="14.45">
+    <row r="144" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B144" s="17">
         <v>1974</v>
@@ -10345,9 +10341,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="14.45">
+    <row r="145" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="B145" s="17">
         <v>1973</v>
@@ -10407,9 +10403,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="14.45">
+    <row r="146" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="B146" s="17">
         <v>1937</v>
@@ -10469,9 +10465,9 @@
         <v>104.20062695924766</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="14.45">
+    <row r="147" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="B147" s="17">
         <v>1938</v>
@@ -10531,9 +10527,9 @@
         <v>137.93103448275863</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="14.45">
+    <row r="148" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B148" s="17">
         <v>1941</v>
@@ -10593,9 +10589,9 @@
         <v>179.31034482758622</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="14.45">
+    <row r="149" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B149" s="17">
         <v>1943</v>
@@ -10655,9 +10651,9 @@
         <v>159.87460815047024</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="14.45">
+    <row r="150" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B150" s="18">
         <v>1918</v>
@@ -10717,9 +10713,9 @@
         <v>30.973451327433629</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.45">
+    <row r="151" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B151" s="18">
         <v>1917</v>
@@ -10779,9 +10775,9 @@
         <v>43.319838056680162</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="14.45">
+    <row r="152" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B152" s="18">
         <v>1944</v>
@@ -10841,9 +10837,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="14.45">
+    <row r="153" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B153" s="17">
         <v>2005</v>
@@ -10903,9 +10899,9 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="14.45">
+    <row r="154" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B154" s="17">
         <v>1944</v>
@@ -10965,9 +10961,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="14.45">
+    <row r="155" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B155" s="18">
         <v>1942</v>
@@ -11027,9 +11023,9 @@
         <v>171.875</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="14.45">
+    <row r="156" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A156" s="20" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="B156" s="17">
         <v>1975</v>
@@ -11089,9 +11085,9 @@
         <v>475.1149425287357</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="14.45">
+    <row r="157" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B157" s="17">
         <v>1972</v>
@@ -11151,9 +11147,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="14.45">
+    <row r="158" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A158" s="20" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B158" s="17">
         <v>1992</v>
@@ -11213,9 +11209,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="14.45">
+    <row r="159" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A159" s="20" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="B159" s="17">
         <v>1943</v>
@@ -11275,9 +11271,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="14.45">
+    <row r="160" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B160" s="18">
         <v>1939</v>
@@ -11337,9 +11333,9 @@
         <v>143.41317365269461</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="14.45">
+    <row r="161" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="B161" s="17">
         <v>1943</v>
@@ -11399,9 +11395,9 @@
         <v>202.85714285714286</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="14.45">
+    <row r="162" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B162" s="18">
         <v>1916</v>
@@ -11461,7 +11457,7 @@
         <v>44.715447154471541</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="14.45">
+    <row r="163" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
         <v>181</v>
       </c>
@@ -11523,9 +11519,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="14.45">
+    <row r="164" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B164" s="17">
         <v>1944</v>
@@ -11585,9 +11581,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="14.45">
+    <row r="165" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B165" s="17">
         <v>1944</v>
@@ -11647,9 +11643,9 @@
         <v>294.9308755760369</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="14.45">
+    <row r="166" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B166" s="18">
         <v>1939</v>
@@ -11709,9 +11705,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="14.45">
+    <row r="167" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A167" s="20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B167" s="17">
         <v>1943</v>
@@ -11771,9 +11767,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="14.45">
+    <row r="168" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A168" s="20" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="B168" s="17">
         <v>1949</v>
@@ -11833,9 +11829,9 @@
         <v>219.07105505998155</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="14.45">
+    <row r="169" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A169" s="20" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B169" s="17">
         <v>1944</v>
@@ -11895,9 +11891,9 @@
         <v>180.10938399539435</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="14.45">
+    <row r="170" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A170" s="20" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="B170" s="17">
         <v>1950</v>
@@ -11957,9 +11953,9 @@
         <v>258.37651122625215</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="14.45">
+    <row r="171" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A171" s="20" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="B171" s="17">
         <v>1948</v>
@@ -12019,9 +12015,9 @@
         <v>293.44660194174753</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="14.45">
+    <row r="172" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A172" s="20" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="B172" s="17">
         <v>1954</v>
@@ -12081,9 +12077,9 @@
         <v>268.80530973451323</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="14.45">
+    <row r="173" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A173" s="20" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B173" s="17">
         <v>1956</v>
@@ -12143,9 +12139,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="14.45">
+    <row r="174" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A174" s="20" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="B174" s="17">
         <v>1972</v>
@@ -12205,9 +12201,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="14.45">
+    <row r="175" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A175" s="20" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B175" s="17">
         <v>1959</v>
@@ -12267,9 +12263,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="14.45">
+    <row r="176" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A176" s="20" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B176" s="17">
         <v>1970</v>
@@ -12329,9 +12325,9 @@
         <v>408.69565217391306</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="14.45">
+    <row r="177" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B177" s="17">
         <v>1970</v>
@@ -12391,9 +12387,9 @@
         <v>476.6</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="14.45">
+    <row r="178" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A178" s="20" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="B178" s="17">
         <v>1978</v>
@@ -12453,9 +12449,9 @@
         <v>636.98750659862753</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="14.45">
+    <row r="179" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="B179" s="17">
         <v>1978</v>
@@ -12515,9 +12511,9 @@
         <v>598.04560260586322</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="14.45">
+    <row r="180" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A180" s="20" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B180" s="17">
         <v>1970</v>
@@ -12577,9 +12573,9 @@
         <v>724.96920640506778</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="14.45">
+    <row r="181" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A181" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B181" s="17">
         <v>1973</v>
@@ -12639,9 +12635,9 @@
         <v>737.61467889908261</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="14.45">
+    <row r="182" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A182" s="20" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B182" s="17">
         <v>1985</v>
@@ -12701,9 +12697,9 @@
         <v>486.84210526315792</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="14.45">
+    <row r="183" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A183" s="20" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="B183" s="17">
         <v>1941</v>
@@ -12763,9 +12759,9 @@
         <v>192.08715596330273</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="14.45">
+    <row r="184" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A184" s="20" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="B184" s="17">
         <v>1983</v>
@@ -12825,9 +12821,9 @@
         <v>750</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="14.45">
+    <row r="185" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A185" s="20" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="B185" s="17">
         <v>1948</v>
@@ -12887,9 +12883,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="14.45">
+    <row r="186" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A186" s="20" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="B186" s="17">
         <v>1983</v>
@@ -12949,9 +12945,9 @@
         <v>414.63414634146341</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="14.45">
+    <row r="187" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A187" s="20" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="B187" s="17">
         <v>1979</v>
@@ -13011,9 +13007,9 @@
         <v>171.23287671232876</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="14.45">
+    <row r="188" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A188" s="20" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="B188" s="17">
         <v>1973</v>
@@ -13073,9 +13069,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="14.45">
+    <row r="189" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A189" s="20" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="B189" s="17">
         <v>1964</v>
@@ -13135,9 +13131,9 @@
         <v>391.42857142857144</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="14.45">
+    <row r="190" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B190" s="18">
         <v>1936</v>
@@ -13197,9 +13193,9 @@
         <v>94.157303370786508</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="14.45">
+    <row r="191" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A191" s="20" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B191" s="17">
         <v>1978</v>
@@ -13259,9 +13255,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="14.45">
+    <row r="192" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B192" s="18">
         <v>1940</v>
@@ -13321,9 +13317,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="14.45">
+    <row r="193" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="B193" s="18">
         <v>1913</v>
@@ -13383,9 +13379,9 @@
         <v>35.792349726775953</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="14.45">
+    <row r="194" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="B194" s="18">
         <v>1938</v>
@@ -13445,9 +13441,9 @@
         <v>141.87134502923976</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="14.45">
+    <row r="195" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="B195" s="18">
         <v>1914</v>
@@ -13507,9 +13503,9 @@
         <v>40.363636363636367</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="14.45">
+    <row r="196" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A196" s="20" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="B196" s="17">
         <v>1943</v>
@@ -13569,9 +13565,9 @@
         <v>239.80559506875298</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="14.45">
+    <row r="197" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="B197" s="17">
         <v>1944</v>
@@ -13631,9 +13627,9 @@
         <v>244.31954077971776</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="14.45">
+    <row r="198" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="B198" s="17">
         <v>1942</v>
@@ -13693,9 +13689,9 @@
         <v>217.86653910547716</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="14.45">
+    <row r="199" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="B199" s="17">
         <v>1944</v>
@@ -13755,9 +13751,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="14.45">
+    <row r="200" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="B200" s="18">
         <v>1936</v>
@@ -13817,9 +13813,9 @@
         <v>76.855895196506552</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.45">
+    <row r="201" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="B201" s="18">
         <v>1937</v>
@@ -13879,9 +13875,9 @@
         <v>96.18484685652875</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.45">
+    <row r="202" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="B202" s="18">
         <v>1941</v>
@@ -13941,9 +13937,9 @@
         <v>121.02803738317758</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.45">
+    <row r="203" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B203" s="17">
         <v>1943</v>
@@ -14003,9 +13999,9 @@
         <v>171.47</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.45">
+    <row r="204" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="B204" s="18">
         <v>1915</v>
@@ -14065,9 +14061,9 @@
         <v>36.090225563909776</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.45">
+    <row r="205" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="B205" s="18">
         <v>1915</v>
@@ -14127,9 +14123,9 @@
         <v>62.162162162162161</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.45">
+    <row r="206" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="B206" s="18">
         <v>1916</v>
@@ -14189,9 +14185,9 @@
         <v>41.353383458646611</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.45">
+    <row r="207" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="B207" s="18">
         <v>1916</v>
@@ -14251,9 +14247,9 @@
         <v>38.305084745762713</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.45">
+    <row r="208" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="B208" s="18">
         <v>1917</v>
@@ -14313,9 +14309,9 @@
         <v>39.66101694915254</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.45">
+    <row r="209" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="B209" s="18">
         <v>1917</v>
@@ -14375,9 +14371,9 @@
         <v>46.0625</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.45">
+    <row r="210" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B210" s="17">
         <v>1942</v>
@@ -14437,9 +14433,9 @@
         <v>235.18032786885246</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.45">
+    <row r="211" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B211" s="17">
         <v>1943</v>
@@ -14499,9 +14495,9 @@
         <v>321.50819672131149</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.45">
+    <row r="212" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A212" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B212" s="17">
         <v>1941</v>
@@ -14561,9 +14557,9 @@
         <v>187.97372410308236</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.45">
+    <row r="213" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="B213" s="17">
         <v>1941</v>
@@ -14623,9 +14619,9 @@
         <v>166.74270072992698</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.45">
+    <row r="214" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="B214" s="17">
         <v>1942</v>
@@ -14685,9 +14681,9 @@
         <v>188.45802919708026</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="14.45">
+    <row r="215" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="B215" s="17">
         <v>1942</v>
@@ -14747,9 +14743,9 @@
         <v>207.11678832116786</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.45">
+    <row r="216" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="B216" s="17">
         <v>1943</v>
@@ -14809,9 +14805,9 @@
         <v>183.05239179954444</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="14.45">
+    <row r="217" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B217" s="17">
         <v>1943</v>
@@ -14871,9 +14867,9 @@
         <v>263.6200716845878</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.45">
+    <row r="218" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A218" s="20" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="B218" s="17">
         <v>1943</v>
@@ -14933,9 +14929,9 @@
         <v>283.15412186379928</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="14.45">
+    <row r="219" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B219" s="17">
         <v>1945</v>
@@ -14995,9 +14991,9 @@
         <v>313.60748913406889</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.45">
+    <row r="220" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="B220" s="17">
         <v>1943</v>
@@ -15057,9 +15053,9 @@
         <v>222.26327944572751</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.45">
+    <row r="221" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="B221" s="17">
         <v>1943</v>
@@ -15119,9 +15115,9 @@
         <v>234.64203233256353</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.45">
+    <row r="222" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B222" s="17">
         <v>1944</v>
@@ -15181,9 +15177,9 @@
         <v>251.62620247366013</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.45">
+    <row r="223" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B223" s="17">
         <v>1945</v>
@@ -15243,9 +15239,9 @@
         <v>346.44313547802449</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.45">
+    <row r="224" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B224" s="17">
         <v>1941</v>
@@ -15305,9 +15301,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.45">
+    <row r="225" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="B225" s="18">
         <v>1917</v>
@@ -15367,9 +15363,9 @@
         <v>42.140921409214094</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.45">
+    <row r="226" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="B226" s="18">
         <v>1918</v>
@@ -15429,9 +15425,9 @@
         <v>41.566820276497694</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.45">
+    <row r="227" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="B227" s="18">
         <v>1917</v>
@@ -15491,9 +15487,9 @@
         <v>31.322957198443582</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="14.45">
+    <row r="228" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="B228" s="18">
         <v>1934</v>
@@ -15553,9 +15549,9 @@
         <v>144.5</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.45">
+    <row r="229" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B229" s="18">
         <v>1933</v>
@@ -15615,9 +15611,9 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.45">
+    <row r="230" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B230" s="17">
         <v>1938</v>
@@ -15677,9 +15673,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="14.45">
+    <row r="231" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A231" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B231" s="17">
         <v>1964</v>
@@ -15739,9 +15735,9 @@
         <v>427.36616702355462</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="14.45">
+    <row r="232" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A232" s="20" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="B232" s="17">
         <v>1997</v>
@@ -15801,9 +15797,9 @@
         <v>423.91304347826087</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="14.45">
+    <row r="233" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A233" s="20" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B233" s="17">
         <v>1943</v>
@@ -15863,9 +15859,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="14.45">
+    <row r="234" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="B234" s="18">
         <v>1939</v>
@@ -15925,9 +15921,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="14.45">
+    <row r="235" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c r="B235" s="18">
         <v>1916</v>
@@ -15987,9 +15983,9 @@
         <v>45.671641791044777</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="14.45">
+    <row r="236" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="B236" s="18">
         <v>1917</v>
@@ -16049,9 +16045,9 @@
         <v>39.509417433201932</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="14.45">
+    <row r="237" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="B237" s="17">
         <v>1945</v>
@@ -16111,9 +16107,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="14.45">
+    <row r="238" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A238" s="20" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="B238" s="17">
         <v>1951</v>
@@ -16173,9 +16169,9 @@
         <v>346.79089026915113</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="14.45">
+    <row r="239" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="B239" s="17">
         <v>1958</v>
@@ -16235,9 +16231,9 @@
         <v>360.96256684491982</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="14.45">
+    <row r="240" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="B240" s="17">
         <v>1965</v>
@@ -16297,9 +16293,9 @@
         <v>325.07110930516052</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="14.45">
+    <row r="241" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="B241" s="17">
         <v>1977</v>
@@ -16359,9 +16355,9 @@
         <v>325.67049808429118</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="13.5" customHeight="1">
+    <row r="242" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B242" s="17">
         <v>1998</v>
@@ -16421,9 +16417,9 @@
         <v>415.8</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="14.45">
+    <row r="243" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="B243" s="18">
         <v>1939</v>
@@ -16483,9 +16479,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="14.45">
+    <row r="244" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="B244" s="18">
         <v>1918</v>
@@ -16545,9 +16541,9 @@
         <v>56.92438402718777</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.45">
+    <row r="245" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A245" s="19" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B245" s="16">
         <v>2013</v>
@@ -16607,9 +16603,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="14.45">
+    <row r="246" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="B246" s="18">
         <v>1918</v>
@@ -16669,9 +16665,9 @@
         <v>52.910052910052912</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.45">
+    <row r="247" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="B247" s="18">
         <v>1917</v>
@@ -16731,9 +16727,9 @@
         <v>36.375321336760926</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.45">
+    <row r="248" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="B248" s="18">
         <v>1917</v>
@@ -16793,9 +16789,9 @@
         <v>30.271790065604499</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.45">
+    <row r="249" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="B249" s="18">
         <v>1918</v>
@@ -16855,9 +16851,9 @@
         <v>37.080948487326246</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.45">
+    <row r="250" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="B250" s="18">
         <v>1916</v>
@@ -16917,9 +16913,9 @@
         <v>23.51694915254237</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.45">
+    <row r="251" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="B251" s="18">
         <v>1918</v>
@@ -16979,9 +16975,9 @@
         <v>36.471990464839095</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.45">
+    <row r="252" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="B252" s="18">
         <v>1916</v>
@@ -17041,9 +17037,9 @@
         <v>30.336029869321717</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.45">
+    <row r="253" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="B253" s="18">
         <v>1916</v>
@@ -17103,9 +17099,9 @@
         <v>32.525629077353216</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.45">
+    <row r="254" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="B254" s="18">
         <v>1916</v>
@@ -17165,9 +17161,9 @@
         <v>41.456582633053216</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.45">
+    <row r="255" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="B255" s="18">
         <v>1917</v>
@@ -17227,9 +17223,9 @@
         <v>40.544554455445549</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.45">
+    <row r="256" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="B256" s="17">
         <v>1938</v>
@@ -17289,9 +17285,9 @@
         <v>107.60676156583629</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.45">
+    <row r="257" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A257" s="20" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="B257" s="17">
         <v>1942</v>
@@ -17351,9 +17347,9 @@
         <v>191.6814946619217</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.45">
+    <row r="258" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="B258" s="17">
         <v>1944</v>
@@ -17413,9 +17409,9 @@
         <v>171.53024911032028</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.45">
+    <row r="259" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B259" s="17">
         <v>1969</v>
@@ -17475,9 +17471,9 @@
         <v>423.75</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.45">
+    <row r="260" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="B260" s="17">
         <v>1971</v>
@@ -17537,9 +17533,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.45">
+    <row r="261" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B261" s="17">
         <v>1980</v>
@@ -17599,9 +17595,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.45">
+    <row r="262" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A262" s="20" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="B262" s="17">
         <v>1974</v>
@@ -17661,9 +17657,9 @@
         <v>719.72443799854977</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.45">
+    <row r="263" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A263" s="20" t="s">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c r="B263" s="17">
         <v>1978</v>
@@ -17723,9 +17719,9 @@
         <v>485.04983388704318</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.45">
+    <row r="264" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A264" s="20" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="B264" s="17">
         <v>1982</v>
@@ -17785,9 +17781,9 @@
         <v>483.87096774193549</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.45">
+    <row r="265" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B265" s="17">
         <v>1994</v>
@@ -17847,9 +17843,9 @@
         <v>548.38709677419354</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.45">
+    <row r="266" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="B266" s="17">
         <v>1956</v>
@@ -17909,9 +17905,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.45">
+    <row r="267" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B267" s="17">
         <v>1967</v>
@@ -17971,9 +17967,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.45">
+    <row r="268" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="B268" s="17">
         <v>1955</v>
@@ -18033,9 +18029,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.45">
+    <row r="269" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="B269" s="17">
         <v>1978</v>
@@ -18095,9 +18091,9 @@
         <v>404.92957746478874</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.45">
+    <row r="270" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="B270" s="17">
         <v>1956</v>
@@ -18157,9 +18153,9 @@
         <v>285.71428571428572</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.45">
+    <row r="271" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A271" s="20" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="B271" s="17">
         <v>1957</v>
@@ -18219,9 +18215,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.45">
+    <row r="272" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A272" s="20" t="s">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="B272" s="17">
         <v>1986</v>
@@ -18281,9 +18277,9 @@
         <v>932.9</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.45">
+    <row r="273" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A273" s="20" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="B273" s="17">
         <v>1982</v>
@@ -18343,9 +18339,9 @@
         <v>907</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.45">
+    <row r="274" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="B274" s="18">
         <v>1928</v>
@@ -18405,9 +18401,9 @@
         <v>60.084033613445378</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.45">
+    <row r="275" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="B275" s="18">
         <v>1915</v>
@@ -18467,9 +18463,9 @@
         <v>26.197183098591548</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.45">
+    <row r="276" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A276" s="20" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="B276" s="17">
         <v>1951</v>
@@ -18529,9 +18525,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.45">
+    <row r="277" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="B277" s="18">
         <v>1940</v>
@@ -18591,9 +18587,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.45">
+    <row r="278" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A278" s="20" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="B278" s="17">
         <v>1953</v>
@@ -18653,9 +18649,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="14.45">
+    <row r="279" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A279" s="20" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="B279" s="17">
         <v>1947</v>
@@ -18715,9 +18711,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.45">
+    <row r="280" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="B280" s="18">
         <v>1944</v>
@@ -18777,9 +18773,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.45">
+    <row r="281" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A281" s="20" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B281" s="17">
         <v>1967</v>
@@ -18839,9 +18835,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.45">
+    <row r="282" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="B282" s="17">
         <v>1945</v>
@@ -18902,7 +18898,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T282">
+  <sortState ref="A2:T282">
     <sortCondition ref="A3"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
